--- a/Classifier1/bloodlabels.xlsx
+++ b/Classifier1/bloodlabels.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R463"/>
+  <dimension ref="A1:R462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="I217" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,40 +13269,40 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C230">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D230">
         <v>1</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>0</v>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230">
         <v>0</v>
@@ -13325,16 +13325,16 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -13343,13 +13343,13 @@
         <v>0</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231">
         <v>0</v>
@@ -13381,31 +13381,31 @@
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -13437,31 +13437,31 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>0</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -13493,31 +13493,31 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B234">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234">
         <v>0</v>
@@ -13549,28 +13549,28 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -13582,13 +13582,13 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O235">
         <v>0</v>
@@ -13608,10 +13608,10 @@
         <v>1</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -13641,10 +13641,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O236">
         <v>0</v>
@@ -13661,16 +13661,16 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -13691,10 +13691,10 @@
         <v>0</v>
       </c>
       <c r="K237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -13717,22 +13717,22 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -13747,10 +13747,10 @@
         <v>0</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M238">
         <v>0</v>
@@ -13776,10 +13776,10 @@
         <v>1</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -13788,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -13806,13 +13806,13 @@
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M239">
         <v>0</v>
       </c>
       <c r="N239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239">
         <v>0</v>
@@ -13835,19 +13835,19 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D240">
         <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -13862,13 +13862,13 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M240">
         <v>0</v>
       </c>
       <c r="N240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O240">
         <v>0</v>
@@ -13885,25 +13885,25 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -13941,10 +13941,10 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -13968,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N242">
         <v>0</v>
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R242">
         <v>0</v>
@@ -13997,13 +13997,13 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R243">
         <v>0</v>
@@ -14053,13 +14053,13 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -14086,10 +14086,10 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N244">
         <v>0</v>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -14145,10 +14145,10 @@
         <v>1</v>
       </c>
       <c r="M245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O245">
         <v>0</v>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="R245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -14168,10 +14168,10 @@
         <v>0</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -14189,13 +14189,13 @@
         <v>0</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246">
         <v>1</v>
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O246">
         <v>0</v>
@@ -14216,18 +14216,18 @@
         <v>0</v>
       </c>
       <c r="R246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C247">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -14239,13 +14239,13 @@
         <v>0</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>1</v>
@@ -14277,13 +14277,13 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -14304,10 +14304,10 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L248">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O248">
         <v>0</v>
@@ -14336,10 +14336,10 @@
         <v>0</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -14366,16 +14366,16 @@
         <v>0</v>
       </c>
       <c r="L249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M249">
         <v>0</v>
       </c>
       <c r="N249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249">
         <v>0</v>
@@ -14389,16 +14389,16 @@
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -14422,16 +14422,16 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N250">
         <v>0</v>
       </c>
       <c r="O250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P250">
         <v>0</v>
@@ -14445,13 +14445,13 @@
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -14481,7 +14481,7 @@
         <v>1</v>
       </c>
       <c r="M251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -14501,16 +14501,16 @@
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -14525,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -14552,18 +14552,18 @@
         <v>0</v>
       </c>
       <c r="R252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B253">
         <v>0</v>
       </c>
       <c r="C253">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -14590,10 +14590,10 @@
         <v>0</v>
       </c>
       <c r="L253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -14608,30 +14608,30 @@
         <v>0</v>
       </c>
       <c r="R253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
         <v>2</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254">
-        <v>6</v>
-      </c>
       <c r="D254">
         <v>0</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -14649,13 +14649,13 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254">
         <v>0</v>
       </c>
       <c r="O254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254">
         <v>0</v>
@@ -14664,24 +14664,24 @@
         <v>0</v>
       </c>
       <c r="R254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -14702,22 +14702,22 @@
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N255">
         <v>0</v>
       </c>
       <c r="O255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P255">
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255">
         <v>1</v>
@@ -14725,16 +14725,16 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -14755,13 +14755,13 @@
         <v>0</v>
       </c>
       <c r="K256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256">
         <v>1</v>
       </c>
       <c r="M256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -14773,21 +14773,21 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="K257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257">
         <v>1</v>
@@ -14837,16 +14837,16 @@
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="D258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -14855,22 +14855,22 @@
         <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
         <v>0</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258">
         <v>0</v>
@@ -14888,12 +14888,12 @@
         <v>0</v>
       </c>
       <c r="R258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -14902,7 +14902,7 @@
         <v>2</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -14920,13 +14920,13 @@
         <v>1</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -14944,15 +14944,15 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C260">
         <v>2</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="L260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q260">
         <v>0</v>
@@ -15005,13 +15005,13 @@
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261">
         <v>2</v>
       </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
       <c r="C261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -15038,10 +15038,10 @@
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261">
         <v>0</v>
@@ -15050,21 +15050,21 @@
         <v>0</v>
       </c>
       <c r="P261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
         <v>0</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C262">
         <v>3</v>
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -15094,16 +15094,16 @@
         <v>0</v>
       </c>
       <c r="L262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P262">
         <v>0</v>
@@ -15112,18 +15112,18 @@
         <v>0</v>
       </c>
       <c r="R262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -15156,10 +15156,10 @@
         <v>0</v>
       </c>
       <c r="N263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P263">
         <v>0</v>
@@ -15179,7 +15179,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -15197,16 +15197,16 @@
         <v>0</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264">
         <v>0</v>
       </c>
       <c r="K264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M264">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="P264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q264">
         <v>0</v>
@@ -15229,16 +15229,16 @@
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C265">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -15250,16 +15250,16 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265">
         <v>0</v>
       </c>
       <c r="K265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L265">
         <v>1</v>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="N265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O265">
         <v>0</v>
@@ -15277,24 +15277,24 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
         <v>5</v>
       </c>
-      <c r="B266">
-        <v>4</v>
-      </c>
-      <c r="C266">
-        <v>17</v>
-      </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -15303,10 +15303,10 @@
         <v>0</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -15324,33 +15324,33 @@
         <v>0</v>
       </c>
       <c r="N266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O266">
         <v>0</v>
       </c>
       <c r="P266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
       <c r="C267">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -15374,16 +15374,16 @@
         <v>0</v>
       </c>
       <c r="L267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267">
         <v>0</v>
@@ -15397,16 +15397,16 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -15427,19 +15427,19 @@
         <v>0</v>
       </c>
       <c r="K268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L268">
         <v>0</v>
       </c>
       <c r="M268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P268">
         <v>0</v>
@@ -15456,10 +15456,10 @@
         <v>0</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>0</v>
       </c>
       <c r="K269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -15495,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="O269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269">
         <v>0</v>
@@ -15509,16 +15509,16 @@
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -15542,16 +15542,16 @@
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M270">
         <v>0</v>
       </c>
       <c r="N270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P270">
         <v>0</v>
@@ -15565,25 +15565,25 @@
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
         <v>4</v>
       </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-      <c r="C271">
-        <v>3</v>
-      </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -15601,10 +15601,10 @@
         <v>1</v>
       </c>
       <c r="M271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O271">
         <v>0</v>
@@ -15621,10 +15621,10 @@
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272">
         <v>4</v>
@@ -15636,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -15645,22 +15645,22 @@
         <v>0</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O272">
         <v>0</v>
@@ -15677,13 +15677,13 @@
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -15701,22 +15701,22 @@
         <v>0</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K273">
         <v>1</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M273">
         <v>0</v>
       </c>
       <c r="N273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O273">
         <v>0</v>
@@ -15733,13 +15733,13 @@
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -15766,13 +15766,13 @@
         <v>1</v>
       </c>
       <c r="L274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M274">
         <v>0</v>
       </c>
       <c r="N274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O274">
         <v>0</v>
@@ -15789,13 +15789,13 @@
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B275">
         <v>1</v>
       </c>
       <c r="C275">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -15816,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N275">
         <v>1</v>
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="P275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q275">
         <v>0</v>
@@ -15845,28 +15845,28 @@
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -15875,22 +15875,22 @@
         <v>0</v>
       </c>
       <c r="K276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O276">
         <v>0</v>
       </c>
       <c r="P276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q276">
         <v>0</v>
@@ -15901,34 +15901,34 @@
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D277">
         <v>0</v>
       </c>
       <c r="E277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277">
         <v>0</v>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277">
         <v>0</v>
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="M277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N277">
         <v>0</v>
@@ -15957,34 +15957,34 @@
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278">
         <v>0</v>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>1</v>
       </c>
       <c r="M278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -16013,31 +16013,31 @@
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -16049,10 +16049,10 @@
         <v>1</v>
       </c>
       <c r="M279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279">
         <v>0</v>
@@ -16069,16 +16069,16 @@
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C280">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -16096,45 +16096,45 @@
         <v>1</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q280">
         <v>0</v>
       </c>
       <c r="R280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C281">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -16143,34 +16143,34 @@
         <v>0</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N281">
         <v>0</v>
       </c>
       <c r="O281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q281">
         <v>0</v>
@@ -16181,13 +16181,13 @@
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
       <c r="C282">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="M282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N282">
         <v>0</v>
@@ -16232,18 +16232,18 @@
         <v>0</v>
       </c>
       <c r="R282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -16255,13 +16255,13 @@
         <v>0</v>
       </c>
       <c r="G283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H283">
         <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="L283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M283">
         <v>0</v>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -16349,19 +16349,19 @@
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D285">
         <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -16376,25 +16376,25 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O285">
         <v>0</v>
       </c>
       <c r="P285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q285">
         <v>0</v>
@@ -16405,52 +16405,52 @@
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
         <v>2</v>
       </c>
-      <c r="C286">
-        <v>8</v>
-      </c>
       <c r="D286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K286">
         <v>0</v>
       </c>
       <c r="L286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O286">
         <v>0</v>
       </c>
       <c r="P286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q286">
         <v>0</v>
@@ -16461,28 +16461,28 @@
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
       <c r="C287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
         <v>0</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G287">
         <v>0</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -16550,13 +16550,13 @@
         <v>0</v>
       </c>
       <c r="L288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O288">
         <v>0</v>
@@ -16573,13 +16573,13 @@
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
       <c r="C289">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -16606,13 +16606,13 @@
         <v>0</v>
       </c>
       <c r="L289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O289">
         <v>0</v>
@@ -16629,13 +16629,13 @@
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290">
         <v>0</v>
@@ -16685,10 +16685,10 @@
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="N291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O291">
         <v>0</v>
@@ -16741,13 +16741,13 @@
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -16756,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -16777,13 +16777,13 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P292">
         <v>0</v>
@@ -16792,21 +16792,21 @@
         <v>0</v>
       </c>
       <c r="R292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
       <c r="C293">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="L293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M293">
         <v>1</v>
@@ -16848,18 +16848,18 @@
         <v>0</v>
       </c>
       <c r="R293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C294">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D294">
         <v>1</v>
@@ -16889,16 +16889,16 @@
         <v>1</v>
       </c>
       <c r="M294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O294">
         <v>1</v>
       </c>
       <c r="P294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q294">
         <v>0</v>
@@ -16909,16 +16909,16 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
         <v>2</v>
       </c>
-      <c r="C295">
-        <v>9</v>
-      </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -16942,19 +16942,19 @@
         <v>0</v>
       </c>
       <c r="L295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M295">
         <v>0</v>
       </c>
       <c r="N295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q295">
         <v>0</v>
@@ -16968,10 +16968,10 @@
         <v>0</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -16989,16 +16989,16 @@
         <v>0</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296">
         <v>0</v>
       </c>
       <c r="K296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M296">
         <v>0</v>
@@ -17024,10 +17024,10 @@
         <v>0</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -17045,19 +17045,19 @@
         <v>0</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297">
         <v>0</v>
       </c>
       <c r="K297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -17077,13 +17077,13 @@
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
       <c r="C298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -17110,10 +17110,10 @@
         <v>0</v>
       </c>
       <c r="L298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -17133,13 +17133,13 @@
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -17151,10 +17151,10 @@
         <v>0</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -17169,7 +17169,7 @@
         <v>1</v>
       </c>
       <c r="M299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -17178,7 +17178,7 @@
         <v>0</v>
       </c>
       <c r="P299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q299">
         <v>0</v>
@@ -17189,16 +17189,16 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
         <v>3</v>
       </c>
-      <c r="C300">
-        <v>7</v>
-      </c>
       <c r="D300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -17228,13 +17228,13 @@
         <v>1</v>
       </c>
       <c r="N300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300">
         <v>0</v>
       </c>
       <c r="P300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q300">
         <v>0</v>
@@ -17248,10 +17248,10 @@
         <v>5</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -17263,13 +17263,13 @@
         <v>0</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301">
         <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -17281,10 +17281,10 @@
         <v>1</v>
       </c>
       <c r="M301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O301">
         <v>0</v>
@@ -17301,13 +17301,13 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302">
         <v>0</v>
@@ -17337,13 +17337,13 @@
         <v>1</v>
       </c>
       <c r="M302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N302">
         <v>0</v>
       </c>
       <c r="O302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P302">
         <v>0</v>
@@ -17413,16 +17413,16 @@
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -17446,7 +17446,7 @@
         <v>0</v>
       </c>
       <c r="L304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M304">
         <v>1</v>
@@ -17455,27 +17455,27 @@
         <v>0</v>
       </c>
       <c r="O304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -17505,33 +17505,33 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O305">
         <v>0</v>
       </c>
       <c r="P305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -17555,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="K306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L306">
         <v>0</v>
@@ -17570,27 +17570,27 @@
         <v>0</v>
       </c>
       <c r="P306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q306">
         <v>0</v>
       </c>
       <c r="R306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -17599,10 +17599,10 @@
         <v>0</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -17620,57 +17620,57 @@
         <v>0</v>
       </c>
       <c r="N307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O307">
         <v>0</v>
       </c>
       <c r="P307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q307">
         <v>0</v>
       </c>
       <c r="R307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308">
         <v>2</v>
       </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
       <c r="C308">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308">
         <v>0</v>
       </c>
       <c r="K308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M308">
         <v>0</v>
@@ -17685,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R308">
         <v>0</v>
@@ -17693,19 +17693,19 @@
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C309">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -17717,13 +17717,13 @@
         <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309">
         <v>0</v>
       </c>
       <c r="K309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L309">
         <v>1</v>
@@ -17741,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R309">
         <v>0</v>
@@ -17755,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -17779,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="K310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M310">
         <v>0</v>
@@ -17805,16 +17805,16 @@
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -17832,19 +17832,19 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K311">
         <v>0</v>
       </c>
       <c r="L311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M311">
         <v>0</v>
       </c>
       <c r="N311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O311">
         <v>0</v>
@@ -17861,19 +17861,19 @@
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
       <c r="C312">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -17888,25 +17888,25 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K312">
         <v>0</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M312">
         <v>0</v>
       </c>
       <c r="N312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q312">
         <v>0</v>
@@ -17917,13 +17917,13 @@
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -17956,13 +17956,13 @@
         <v>0</v>
       </c>
       <c r="N313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O313">
         <v>1</v>
       </c>
       <c r="P313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q313">
         <v>0</v>
@@ -17976,19 +17976,19 @@
         <v>6</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314">
         <v>1</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314">
         <v>0</v>
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="L314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M314">
         <v>0</v>
@@ -18029,13 +18029,13 @@
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C315">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -18044,13 +18044,13 @@
         <v>1</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
         <v>0</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -18062,13 +18062,13 @@
         <v>0</v>
       </c>
       <c r="L315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O315">
         <v>1</v>
@@ -18085,31 +18085,31 @@
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D316">
         <v>1</v>
       </c>
       <c r="E316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -18121,13 +18121,13 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N316">
         <v>0</v>
       </c>
       <c r="O316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P316">
         <v>0</v>
@@ -18141,16 +18141,16 @@
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
       <c r="C317">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -18177,10 +18177,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O317">
         <v>0</v>
@@ -18192,15 +18192,15 @@
         <v>0</v>
       </c>
       <c r="R317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C318">
         <v>6</v>
@@ -18209,7 +18209,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -18221,22 +18221,22 @@
         <v>0</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318">
         <v>0</v>
       </c>
       <c r="K318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O318">
         <v>0</v>
@@ -18256,16 +18256,16 @@
         <v>1</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C319">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D319">
         <v>0</v>
       </c>
       <c r="E319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -18283,28 +18283,28 @@
         <v>0</v>
       </c>
       <c r="K319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O319">
         <v>0</v>
       </c>
       <c r="P319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q319">
         <v>0</v>
       </c>
       <c r="R319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
@@ -18312,10 +18312,10 @@
         <v>1</v>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -18330,10 +18330,10 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320">
         <v>0</v>
@@ -18342,10 +18342,10 @@
         <v>0</v>
       </c>
       <c r="L320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N320">
         <v>1</v>
@@ -18354,10 +18354,10 @@
         <v>0</v>
       </c>
       <c r="P320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R320">
         <v>0</v>
@@ -18365,14 +18365,14 @@
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
         <v>2</v>
       </c>
-      <c r="C321">
-        <v>7</v>
-      </c>
       <c r="D321">
         <v>0</v>
       </c>
@@ -18398,13 +18398,13 @@
         <v>0</v>
       </c>
       <c r="L321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321">
         <v>0</v>
       </c>
       <c r="N321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O321">
         <v>0</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R321">
         <v>0</v>
@@ -18421,13 +18421,13 @@
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -18445,7 +18445,7 @@
         <v>0</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322">
         <v>0</v>
@@ -18477,13 +18477,13 @@
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -18495,16 +18495,16 @@
         <v>0</v>
       </c>
       <c r="G323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323">
         <v>0</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -18528,18 +18528,18 @@
         <v>0</v>
       </c>
       <c r="R323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B324">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C324">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -18551,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="G324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -18560,10 +18560,10 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L324">
         <v>0</v>
@@ -18584,18 +18584,18 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B325">
         <v>1</v>
       </c>
       <c r="C325">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -18613,7 +18613,7 @@
         <v>0</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325">
         <v>0</v>
@@ -18645,10 +18645,10 @@
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C326">
         <v>4</v>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -18675,19 +18675,19 @@
         <v>0</v>
       </c>
       <c r="K326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N326">
         <v>0</v>
       </c>
       <c r="O326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P326">
         <v>0</v>
@@ -18701,13 +18701,13 @@
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -18716,13 +18716,13 @@
         <v>0</v>
       </c>
       <c r="F327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327">
         <v>1</v>
@@ -18737,13 +18737,13 @@
         <v>1</v>
       </c>
       <c r="M327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N327">
         <v>0</v>
       </c>
       <c r="O327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P327">
         <v>0</v>
@@ -18757,13 +18757,13 @@
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -18772,19 +18772,19 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G328">
         <v>0</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328">
         <v>1</v>
       </c>
       <c r="J328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328">
         <v>0</v>
@@ -18793,7 +18793,7 @@
         <v>1</v>
       </c>
       <c r="M328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -18808,18 +18808,18 @@
         <v>0</v>
       </c>
       <c r="R328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -18837,19 +18837,19 @@
         <v>0</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K329">
         <v>0</v>
       </c>
       <c r="L329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -18864,15 +18864,15 @@
         <v>0</v>
       </c>
       <c r="R329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -18925,16 +18925,16 @@
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B331">
         <v>0</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="N331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O331">
         <v>0</v>
@@ -18981,16 +18981,16 @@
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B332">
         <v>0</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -19002,7 +19002,7 @@
         <v>0</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -19020,13 +19020,13 @@
         <v>0</v>
       </c>
       <c r="N332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O332">
         <v>0</v>
       </c>
       <c r="P332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q332">
         <v>0</v>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
       <c r="L333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M333">
         <v>0</v>
@@ -19099,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="C334">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
       <c r="L334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M334">
         <v>0</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="P334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q334">
         <v>0</v>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
       <c r="N335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O335">
         <v>0</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -19238,13 +19238,13 @@
         <v>0</v>
       </c>
       <c r="L336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O336">
         <v>0</v>
@@ -19261,13 +19261,13 @@
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C337">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -19279,7 +19279,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -19297,10 +19297,10 @@
         <v>1</v>
       </c>
       <c r="M337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O337">
         <v>0</v>
@@ -19317,13 +19317,13 @@
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B338">
         <v>2</v>
       </c>
       <c r="C338">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -19335,13 +19335,13 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H338">
         <v>0</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338">
         <v>0</v>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="L338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M338">
         <v>0</v>
@@ -19373,16 +19373,16 @@
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -19397,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339">
         <v>0</v>
@@ -19406,13 +19406,13 @@
         <v>0</v>
       </c>
       <c r="L339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O339">
         <v>0</v>
@@ -19429,16 +19429,16 @@
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340">
         <v>3</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -19456,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K340">
         <v>0</v>
@@ -19465,7 +19465,7 @@
         <v>1</v>
       </c>
       <c r="M340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -19485,13 +19485,13 @@
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B341">
         <v>1</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -19512,7 +19512,7 @@
         <v>0</v>
       </c>
       <c r="J341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341">
         <v>0</v>
@@ -19541,16 +19541,16 @@
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B342">
         <v>1</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342">
         <v>0</v>
@@ -19597,22 +19597,22 @@
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
         <v>2</v>
       </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-      <c r="C343">
-        <v>3</v>
-      </c>
       <c r="D343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E343">
         <v>0</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343">
         <v>0</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="J343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343">
         <v>0</v>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R343">
         <v>0</v>
@@ -19653,13 +19653,13 @@
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B344">
         <v>0</v>
       </c>
       <c r="C344">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G344">
         <v>0</v>
@@ -19695,13 +19695,13 @@
         <v>0</v>
       </c>
       <c r="O344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P344">
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R344">
         <v>0</v>
@@ -19709,19 +19709,19 @@
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345">
+        <v>4</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
         <v>2</v>
       </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-      <c r="C345">
-        <v>4</v>
-      </c>
       <c r="D345">
         <v>0</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="O345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P345">
         <v>0</v>
@@ -19765,22 +19765,22 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B346">
         <v>0</v>
       </c>
       <c r="C346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D346">
         <v>0</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G346">
         <v>0</v>
@@ -19801,10 +19801,10 @@
         <v>1</v>
       </c>
       <c r="M346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O346">
         <v>0</v>
@@ -19821,22 +19821,22 @@
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E347">
         <v>0</v>
       </c>
       <c r="F347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G347">
         <v>0</v>
@@ -19863,10 +19863,10 @@
         <v>1</v>
       </c>
       <c r="O347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q347">
         <v>0</v>
@@ -19877,13 +19877,13 @@
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -19913,16 +19913,16 @@
         <v>1</v>
       </c>
       <c r="M348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348">
         <v>0</v>
@@ -19933,13 +19933,13 @@
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -19948,13 +19948,13 @@
         <v>0</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="L349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M349">
         <v>0</v>
@@ -19989,28 +19989,28 @@
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350">
         <v>0</v>
       </c>
       <c r="F350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G350">
         <v>0</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -20022,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="L350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M350">
         <v>0</v>
@@ -20045,13 +20045,13 @@
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B351">
         <v>0</v>
       </c>
       <c r="C351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="L351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M351">
         <v>0</v>
@@ -20101,13 +20101,13 @@
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B352">
         <v>0</v>
       </c>
       <c r="C352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -20140,7 +20140,7 @@
         <v>0</v>
       </c>
       <c r="N352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O352">
         <v>0</v>
@@ -20157,10 +20157,10 @@
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G353">
         <v>0</v>
@@ -20181,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353">
         <v>0</v>
@@ -20190,13 +20190,13 @@
         <v>0</v>
       </c>
       <c r="L353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M353">
         <v>0</v>
       </c>
       <c r="N353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O353">
         <v>0</v>
@@ -20213,10 +20213,10 @@
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
       <c r="F354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J354">
         <v>0</v>
@@ -20246,10 +20246,10 @@
         <v>0</v>
       </c>
       <c r="L354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -20275,7 +20275,7 @@
         <v>0</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -20325,13 +20325,13 @@
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="L356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M356">
         <v>0</v>
@@ -20384,16 +20384,16 @@
         <v>2</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D357">
         <v>0</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -20420,7 +20420,7 @@
         <v>0</v>
       </c>
       <c r="N357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O357">
         <v>0</v>
@@ -20437,19 +20437,19 @@
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -20473,10 +20473,10 @@
         <v>1</v>
       </c>
       <c r="M358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O358">
         <v>0</v>
@@ -20493,16 +20493,16 @@
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="L359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M359">
         <v>1</v>
@@ -20549,7 +20549,7 @@
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -20582,10 +20582,10 @@
         <v>0</v>
       </c>
       <c r="L360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -20661,13 +20661,13 @@
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="F362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G362">
         <v>0</v>
@@ -20697,7 +20697,7 @@
         <v>1</v>
       </c>
       <c r="M362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -20720,19 +20720,19 @@
         <v>1</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D363">
         <v>0</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -20750,13 +20750,13 @@
         <v>0</v>
       </c>
       <c r="L363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O363">
         <v>0</v>
@@ -20773,19 +20773,19 @@
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B364">
         <v>0</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D364">
         <v>0</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="L364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M364">
         <v>0</v>
@@ -20829,19 +20829,19 @@
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B365">
         <v>0</v>
       </c>
       <c r="C365">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -20885,19 +20885,19 @@
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B366">
         <v>0</v>
       </c>
       <c r="C366">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -20921,10 +20921,10 @@
         <v>1</v>
       </c>
       <c r="M366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O366">
         <v>0</v>
@@ -20941,7 +20941,7 @@
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -20974,13 +20974,13 @@
         <v>0</v>
       </c>
       <c r="L367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M367">
         <v>1</v>
       </c>
       <c r="N367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O367">
         <v>0</v>
@@ -20997,19 +20997,19 @@
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B368">
         <v>0</v>
       </c>
       <c r="C368">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D368">
         <v>0</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -21030,10 +21030,10 @@
         <v>0</v>
       </c>
       <c r="L368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N368">
         <v>1</v>
@@ -21053,13 +21053,13 @@
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C369">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369">
         <v>0</v>
@@ -21086,10 +21086,10 @@
         <v>0</v>
       </c>
       <c r="L369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N369">
         <v>1</v>
@@ -21112,25 +21112,25 @@
         <v>6</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D370">
         <v>0</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G370">
         <v>0</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -21142,10 +21142,10 @@
         <v>0</v>
       </c>
       <c r="L370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N370">
         <v>1</v>
@@ -21165,10 +21165,10 @@
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C371">
         <v>2</v>
@@ -21177,19 +21177,19 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371">
         <v>0</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J371">
         <v>0</v>
@@ -21204,10 +21204,10 @@
         <v>0</v>
       </c>
       <c r="N371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P371">
         <v>0</v>
@@ -21221,10 +21221,10 @@
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372">
         <v>2</v>
@@ -21233,13 +21233,13 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F372">
         <v>0</v>
       </c>
       <c r="G372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -21257,13 +21257,13 @@
         <v>1</v>
       </c>
       <c r="M372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372">
         <v>0</v>
       </c>
       <c r="O372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P372">
         <v>0</v>
@@ -21277,10 +21277,10 @@
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373">
         <v>2</v>
@@ -21289,19 +21289,19 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373">
         <v>0</v>
       </c>
       <c r="G373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="L373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M373">
         <v>1</v>
@@ -21333,7 +21333,7 @@
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374">
         <v>0</v>
@@ -21369,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -21384,30 +21384,30 @@
         <v>0</v>
       </c>
       <c r="R374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B375">
         <v>1</v>
       </c>
       <c r="C375">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H375">
         <v>0</v>
@@ -21422,10 +21422,10 @@
         <v>0</v>
       </c>
       <c r="L375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -21440,18 +21440,18 @@
         <v>0</v>
       </c>
       <c r="R375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D376">
         <v>1</v>
@@ -21463,7 +21463,7 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H376">
         <v>0</v>
@@ -21478,13 +21478,13 @@
         <v>0</v>
       </c>
       <c r="L376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376">
         <v>0</v>
@@ -21501,22 +21501,22 @@
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
         <v>3</v>
       </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-      <c r="C377">
-        <v>1</v>
-      </c>
       <c r="D377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377">
         <v>0</v>
@@ -21534,13 +21534,13 @@
         <v>0</v>
       </c>
       <c r="L377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O377">
         <v>0</v>
@@ -21557,16 +21557,16 @@
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B378">
         <v>0</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -21590,13 +21590,13 @@
         <v>0</v>
       </c>
       <c r="L378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M378">
         <v>1</v>
       </c>
       <c r="N378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O378">
         <v>0</v>
@@ -21613,7 +21613,7 @@
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -21622,7 +21622,7 @@
         <v>2</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -21649,13 +21649,13 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P379">
         <v>0</v>
@@ -21708,10 +21708,10 @@
         <v>0</v>
       </c>
       <c r="N380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P380">
         <v>0</v>
@@ -21770,7 +21770,7 @@
         <v>0</v>
       </c>
       <c r="P381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q381">
         <v>0</v>
@@ -21781,7 +21781,7 @@
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>2</v>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -21814,22 +21814,22 @@
         <v>0</v>
       </c>
       <c r="L382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M382">
         <v>0</v>
       </c>
       <c r="N382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O382">
         <v>0</v>
       </c>
       <c r="P382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R382">
         <v>0</v>
@@ -21837,19 +21837,19 @@
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
+        <v>6</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
         <v>3</v>
       </c>
-      <c r="B383">
-        <v>0</v>
-      </c>
-      <c r="C383">
-        <v>2</v>
-      </c>
       <c r="D383">
         <v>1</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -21858,7 +21858,7 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383">
         <v>0</v>
@@ -21870,13 +21870,13 @@
         <v>0</v>
       </c>
       <c r="L383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M383">
         <v>0</v>
       </c>
       <c r="N383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O383">
         <v>0</v>
@@ -21885,7 +21885,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R383">
         <v>0</v>
@@ -21893,19 +21893,19 @@
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -21914,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384">
         <v>0</v>
@@ -21932,7 +21932,7 @@
         <v>0</v>
       </c>
       <c r="N384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O384">
         <v>0</v>
@@ -21949,13 +21949,13 @@
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -22005,16 +22005,16 @@
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="G386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="L386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M386">
         <v>0</v>
@@ -22053,7 +22053,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R386">
         <v>0</v>
@@ -22064,10 +22064,10 @@
         <v>4</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D387">
         <v>1</v>
@@ -22076,10 +22076,10 @@
         <v>0</v>
       </c>
       <c r="F387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="L387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M387">
         <v>0</v>
@@ -22103,13 +22103,13 @@
         <v>0</v>
       </c>
       <c r="O387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P387">
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R387">
         <v>0</v>
@@ -22117,22 +22117,22 @@
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388">
+        <v>1</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
         <v>4</v>
       </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-      <c r="C388">
-        <v>3</v>
-      </c>
       <c r="D388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E388">
         <v>0</v>
       </c>
       <c r="F388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -22150,16 +22150,16 @@
         <v>0</v>
       </c>
       <c r="L388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N388">
         <v>0</v>
       </c>
       <c r="O388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P388">
         <v>0</v>
@@ -22173,22 +22173,22 @@
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C389">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E389">
         <v>0</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G389">
         <v>0</v>
@@ -22197,7 +22197,7 @@
         <v>0</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389">
         <v>0</v>
@@ -22209,7 +22209,7 @@
         <v>1</v>
       </c>
       <c r="M389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -22229,10 +22229,10 @@
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B390">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -22244,7 +22244,7 @@
         <v>0</v>
       </c>
       <c r="F390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -22253,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390">
         <v>0</v>
@@ -22285,16 +22285,16 @@
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
       <c r="D391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -22318,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="L391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M391">
         <v>0</v>
@@ -22341,16 +22341,16 @@
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B392">
         <v>1</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -22359,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H392">
         <v>0</v>
@@ -22374,10 +22374,10 @@
         <v>0</v>
       </c>
       <c r="L392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -22397,14 +22397,14 @@
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393">
+        <v>4</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
         <v>6</v>
       </c>
-      <c r="B393">
-        <v>1</v>
-      </c>
-      <c r="C393">
-        <v>3</v>
-      </c>
       <c r="D393">
         <v>1</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="G393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H393">
         <v>0</v>
@@ -22433,16 +22433,16 @@
         <v>1</v>
       </c>
       <c r="M393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O393">
         <v>0</v>
       </c>
       <c r="P393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q393">
         <v>0</v>
@@ -22453,16 +22453,16 @@
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -22489,16 +22489,16 @@
         <v>1</v>
       </c>
       <c r="M394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O394">
         <v>0</v>
       </c>
       <c r="P394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q394">
         <v>0</v>
@@ -22509,16 +22509,16 @@
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C395">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -22545,7 +22545,7 @@
         <v>1</v>
       </c>
       <c r="M395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -22565,19 +22565,19 @@
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C396">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F396">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="L396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M396">
         <v>0</v>
@@ -22621,22 +22621,22 @@
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B397">
         <v>0</v>
       </c>
       <c r="C397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397">
         <v>0</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N397">
         <v>0</v>
@@ -22677,31 +22677,31 @@
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
         <v>4</v>
       </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-      <c r="C398">
-        <v>1</v>
-      </c>
       <c r="D398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E398">
         <v>0</v>
       </c>
       <c r="F398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G398">
         <v>0</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398">
         <v>0</v>
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="L398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q398">
         <v>0</v>
@@ -22736,11 +22736,11 @@
         <v>3</v>
       </c>
       <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
         <v>2</v>
       </c>
-      <c r="C399">
-        <v>4</v>
-      </c>
       <c r="D399">
         <v>1</v>
       </c>
@@ -22754,10 +22754,10 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399">
         <v>0</v>
@@ -22775,10 +22775,10 @@
         <v>1</v>
       </c>
       <c r="O399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
         <v>0</v>
@@ -22789,16 +22789,16 @@
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -22825,10 +22825,10 @@
         <v>1</v>
       </c>
       <c r="M400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O400">
         <v>0</v>
@@ -22845,31 +22845,31 @@
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G401">
         <v>0</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J401">
         <v>0</v>
@@ -22878,10 +22878,10 @@
         <v>0</v>
       </c>
       <c r="L401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -22901,31 +22901,31 @@
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G402">
         <v>0</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J402">
         <v>0</v>
@@ -22934,13 +22934,13 @@
         <v>0</v>
       </c>
       <c r="L402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M402">
         <v>0</v>
       </c>
       <c r="N402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O402">
         <v>0</v>
@@ -22957,13 +22957,13 @@
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B403">
         <v>0</v>
       </c>
       <c r="C403">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -22990,13 +22990,13 @@
         <v>0</v>
       </c>
       <c r="L403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M403">
         <v>0</v>
       </c>
       <c r="N403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O403">
         <v>0</v>
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D404">
         <v>0</v>
@@ -23046,13 +23046,13 @@
         <v>0</v>
       </c>
       <c r="L404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O404">
         <v>0</v>
@@ -23069,13 +23069,13 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B405">
         <v>0</v>
       </c>
       <c r="C405">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D405">
         <v>0</v>
@@ -23102,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="L405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O405">
         <v>0</v>
@@ -23125,13 +23125,13 @@
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B406">
         <v>0</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D406">
         <v>0</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="L406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M406">
         <v>0</v>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="C407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D407">
         <v>0</v>
@@ -23214,13 +23214,13 @@
         <v>0</v>
       </c>
       <c r="L407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M407">
         <v>0</v>
       </c>
       <c r="N407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O407">
         <v>0</v>
@@ -23237,13 +23237,13 @@
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="L408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M408">
         <v>0</v>
       </c>
       <c r="N408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O408">
         <v>0</v>
@@ -23293,16 +23293,16 @@
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="L409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -23349,46 +23349,46 @@
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410">
+        <v>12</v>
+      </c>
+      <c r="B410">
         <v>2</v>
       </c>
-      <c r="B410">
-        <v>0</v>
-      </c>
       <c r="C410">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D410">
         <v>1</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G410">
         <v>0</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J410">
         <v>0</v>
       </c>
       <c r="K410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M410">
         <v>0</v>
       </c>
       <c r="N410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O410">
         <v>0</v>
@@ -23400,51 +23400,51 @@
         <v>0</v>
       </c>
       <c r="R410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C411">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G411">
         <v>0</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J411">
         <v>0</v>
       </c>
       <c r="K411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M411">
         <v>0</v>
       </c>
       <c r="N411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O411">
         <v>0</v>
@@ -23456,18 +23456,18 @@
         <v>0</v>
       </c>
       <c r="R411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D412">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G412">
         <v>0</v>
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         <v>0</v>
       </c>
       <c r="L412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M412">
         <v>0</v>
       </c>
       <c r="N412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q412">
         <v>0</v>
@@ -23517,13 +23517,13 @@
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B413">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C413">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D413">
         <v>0</v>
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413">
         <v>0</v>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413">
         <v>0</v>
@@ -23550,19 +23550,19 @@
         <v>0</v>
       </c>
       <c r="L413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M413">
         <v>0</v>
       </c>
       <c r="N413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q413">
         <v>0</v>
@@ -23573,13 +23573,13 @@
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -23597,7 +23597,7 @@
         <v>0</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414">
         <v>0</v>
@@ -23629,13 +23629,13 @@
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>0</v>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="F415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415">
         <v>0</v>
@@ -23685,13 +23685,13 @@
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B416">
         <v>0</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D416">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416">
         <v>0</v>
@@ -23724,7 +23724,7 @@
         <v>0</v>
       </c>
       <c r="N416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O416">
         <v>0</v>
@@ -23741,7 +23741,7 @@
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417">
         <v>0</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="L417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M417">
         <v>0</v>
       </c>
       <c r="N417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O417">
         <v>0</v>
@@ -23797,19 +23797,19 @@
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B418">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C418">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -23818,10 +23818,10 @@
         <v>0</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418">
         <v>0</v>
@@ -23833,10 +23833,10 @@
         <v>1</v>
       </c>
       <c r="M418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O418">
         <v>0</v>
@@ -23853,31 +23853,31 @@
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B419">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C419">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G419">
         <v>0</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J419">
         <v>0</v>
@@ -23886,13 +23886,13 @@
         <v>0</v>
       </c>
       <c r="L419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O419">
         <v>0</v>
@@ -23909,22 +23909,22 @@
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B420">
         <v>0</v>
       </c>
       <c r="C420">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D420">
         <v>0</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G420">
         <v>0</v>
@@ -23942,13 +23942,13 @@
         <v>0</v>
       </c>
       <c r="L420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O420">
         <v>0</v>
@@ -23965,19 +23965,19 @@
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421">
+        <v>1</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
         <v>3</v>
       </c>
-      <c r="B421">
-        <v>0</v>
-      </c>
-      <c r="C421">
-        <v>4</v>
-      </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="E421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F421">
         <v>0</v>
@@ -24001,7 +24001,7 @@
         <v>1</v>
       </c>
       <c r="M421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N421">
         <v>1</v>
@@ -24021,16 +24021,16 @@
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B422">
         <v>1</v>
       </c>
       <c r="C422">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -24057,7 +24057,7 @@
         <v>1</v>
       </c>
       <c r="M422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N422">
         <v>1</v>
@@ -24080,10 +24080,10 @@
         <v>2</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="G423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H423">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="L423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M423">
         <v>1</v>
       </c>
       <c r="N423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O423">
         <v>0</v>
@@ -24133,7 +24133,7 @@
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -24151,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="G424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H424">
         <v>0</v>
@@ -24166,10 +24166,10 @@
         <v>0</v>
       </c>
       <c r="L424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
       <c r="L425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M425">
         <v>0</v>
@@ -24245,13 +24245,13 @@
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426">
         <v>0</v>
@@ -24269,7 +24269,7 @@
         <v>0</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426">
         <v>0</v>
@@ -24278,7 +24278,7 @@
         <v>0</v>
       </c>
       <c r="L426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M426">
         <v>0</v>
@@ -24304,10 +24304,10 @@
         <v>1</v>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D427">
         <v>0</v>
@@ -24325,16 +24325,16 @@
         <v>0</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K427">
         <v>0</v>
       </c>
       <c r="L427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M427">
         <v>0</v>
@@ -24360,10 +24360,10 @@
         <v>1</v>
       </c>
       <c r="B428">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C428">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D428">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H428">
         <v>0</v>
@@ -24384,16 +24384,16 @@
         <v>0</v>
       </c>
       <c r="J428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K428">
         <v>0</v>
       </c>
       <c r="L428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -24413,46 +24413,46 @@
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C429">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J429">
         <v>0</v>
       </c>
       <c r="K429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L429">
         <v>1</v>
       </c>
       <c r="M429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O429">
         <v>0</v>
@@ -24464,33 +24464,33 @@
         <v>0</v>
       </c>
       <c r="R429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B430">
         <v>2</v>
       </c>
       <c r="C430">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E430">
         <v>1</v>
       </c>
       <c r="F430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G430">
         <v>0</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="K430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L430">
         <v>1</v>
       </c>
       <c r="M430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O430">
         <v>0</v>
@@ -24520,30 +24520,30 @@
         <v>0</v>
       </c>
       <c r="R430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B431">
         <v>2</v>
       </c>
       <c r="C431">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F431">
         <v>0</v>
       </c>
       <c r="G431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431">
         <v>0</v>
@@ -24558,39 +24558,39 @@
         <v>0</v>
       </c>
       <c r="L431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O431">
         <v>0</v>
       </c>
       <c r="P431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q431">
         <v>0</v>
       </c>
       <c r="R431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C432">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -24599,7 +24599,7 @@
         <v>0</v>
       </c>
       <c r="G432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H432">
         <v>0</v>
@@ -24623,10 +24623,10 @@
         <v>1</v>
       </c>
       <c r="O432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q432">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>1</v>
       </c>
       <c r="C433">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D433">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433">
         <v>0</v>
@@ -24676,10 +24676,10 @@
         <v>0</v>
       </c>
       <c r="N433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P433">
         <v>0</v>
@@ -24688,18 +24688,18 @@
         <v>0</v>
       </c>
       <c r="R433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C434">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D434">
         <v>0</v>
@@ -24726,13 +24726,13 @@
         <v>0</v>
       </c>
       <c r="L434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O434">
         <v>0</v>
@@ -24749,13 +24749,13 @@
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B435">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C435">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D435">
         <v>0</v>
@@ -24785,10 +24785,10 @@
         <v>1</v>
       </c>
       <c r="M435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O435">
         <v>0</v>
@@ -24805,16 +24805,16 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C436">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -24826,10 +24826,10 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J436">
         <v>0</v>
@@ -24861,16 +24861,16 @@
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B437">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J437">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="L437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M437">
         <v>0</v>
       </c>
       <c r="N437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P437">
         <v>0</v>
@@ -24917,13 +24917,13 @@
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B438">
         <v>0</v>
       </c>
       <c r="C438">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D438">
         <v>0</v>
@@ -24947,7 +24947,7 @@
         <v>0</v>
       </c>
       <c r="K438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L438">
         <v>0</v>
@@ -24956,10 +24956,10 @@
         <v>0</v>
       </c>
       <c r="N438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P438">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="C439">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D439">
         <v>0</v>
@@ -25003,10 +25003,10 @@
         <v>0</v>
       </c>
       <c r="K439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M439">
         <v>0</v>
@@ -25032,13 +25032,13 @@
         <v>1</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -25085,10 +25085,10 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C441">
         <v>2</v>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="I441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441">
         <v>0</v>
@@ -25127,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="O441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P441">
         <v>0</v>
@@ -25144,13 +25144,13 @@
         <v>2</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442">
         <v>0</v>
@@ -25174,22 +25174,22 @@
         <v>0</v>
       </c>
       <c r="L442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M442">
         <v>0</v>
       </c>
       <c r="N442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P442">
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R442">
         <v>0</v>
@@ -25197,16 +25197,16 @@
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B443">
         <v>2</v>
       </c>
       <c r="C443">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="G443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H443">
         <v>0</v>
@@ -25224,19 +25224,19 @@
         <v>0</v>
       </c>
       <c r="J443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K443">
         <v>0</v>
       </c>
       <c r="L443">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M443">
         <v>0</v>
       </c>
       <c r="N443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O443">
         <v>0</v>
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R443">
         <v>0</v>
@@ -25253,16 +25253,16 @@
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B444">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C444">
         <v>7</v>
       </c>
       <c r="D444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="J444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K444">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>1</v>
       </c>
       <c r="M444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -25304,18 +25304,18 @@
         <v>0</v>
       </c>
       <c r="R444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B445">
         <v>0</v>
       </c>
       <c r="C445">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D445">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="F445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H445">
         <v>0</v>
@@ -25342,13 +25342,13 @@
         <v>0</v>
       </c>
       <c r="L445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O445">
         <v>0</v>
@@ -25360,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="R445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446">
+        <v>0</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+      <c r="C446">
         <v>3</v>
       </c>
-      <c r="B446">
-        <v>0</v>
-      </c>
-      <c r="C446">
-        <v>1</v>
-      </c>
       <c r="D446">
         <v>0</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="F446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446">
         <v>0</v>
@@ -25401,10 +25401,10 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O446">
         <v>0</v>
@@ -25421,19 +25421,19 @@
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C447">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -25442,10 +25442,10 @@
         <v>0</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447">
         <v>0</v>
@@ -25454,13 +25454,13 @@
         <v>0</v>
       </c>
       <c r="L447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M447">
         <v>1</v>
       </c>
       <c r="N447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O447">
         <v>0</v>
@@ -25477,19 +25477,19 @@
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B448">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C448">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -25498,7 +25498,7 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -25510,13 +25510,13 @@
         <v>0</v>
       </c>
       <c r="L448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O448">
         <v>0</v>
@@ -25536,10 +25536,10 @@
         <v>2</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="F449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G449">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449">
         <v>0</v>
@@ -25566,13 +25566,13 @@
         <v>0</v>
       </c>
       <c r="L449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M449">
         <v>0</v>
       </c>
       <c r="N449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O449">
         <v>0</v>
@@ -25595,16 +25595,16 @@
         <v>0</v>
       </c>
       <c r="C450">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450">
         <v>0</v>
       </c>
       <c r="F450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450">
         <v>0</v>
@@ -25622,13 +25622,13 @@
         <v>0</v>
       </c>
       <c r="L450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M450">
         <v>0</v>
       </c>
       <c r="N450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O450">
         <v>0</v>
@@ -25645,16 +25645,16 @@
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B451">
         <v>0</v>
       </c>
       <c r="C451">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N451">
         <v>0</v>
       </c>
       <c r="O451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P451">
         <v>0</v>
@@ -25696,12 +25696,12 @@
         <v>0</v>
       </c>
       <c r="R451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -25710,10 +25710,10 @@
         <v>4</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452">
         <v>0</v>
@@ -25737,51 +25737,51 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N452">
         <v>0</v>
       </c>
       <c r="O452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q452">
         <v>0</v>
       </c>
       <c r="R452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C453">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F453">
         <v>0</v>
       </c>
       <c r="G453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H453">
         <v>0</v>
       </c>
       <c r="I453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J453">
         <v>0</v>
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="P453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q453">
         <v>0</v>
@@ -25813,13 +25813,13 @@
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B454">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C454">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D454">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="G454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H454">
         <v>0</v>
       </c>
       <c r="I454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="L454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M454">
         <v>0</v>
@@ -25869,13 +25869,13 @@
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D455">
         <v>0</v>
@@ -25890,7 +25890,7 @@
         <v>0</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I455">
         <v>0</v>
@@ -25925,16 +25925,16 @@
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C456">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O456">
         <v>0</v>
@@ -25981,13 +25981,13 @@
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B457">
         <v>1</v>
       </c>
       <c r="C457">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D457">
         <v>1</v>
@@ -26005,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="I457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457">
         <v>0</v>
@@ -26017,10 +26017,10 @@
         <v>1</v>
       </c>
       <c r="M457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O457">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R457">
         <v>0</v>
@@ -26037,13 +26037,13 @@
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B458">
         <v>1</v>
       </c>
       <c r="C458">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -26055,13 +26055,13 @@
         <v>0</v>
       </c>
       <c r="G458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H458">
         <v>0</v>
       </c>
       <c r="I458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="L458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N458">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R458">
         <v>0</v>
@@ -26093,16 +26093,16 @@
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -26111,7 +26111,7 @@
         <v>0</v>
       </c>
       <c r="G459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H459">
         <v>0</v>
@@ -26132,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O459">
         <v>0</v>
@@ -26149,13 +26149,13 @@
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D460">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="I460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460">
         <v>0</v>
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O460">
         <v>0</v>
@@ -26205,13 +26205,13 @@
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D461">
         <v>0</v>
@@ -26223,25 +26223,25 @@
         <v>0</v>
       </c>
       <c r="G461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H461">
         <v>0</v>
       </c>
       <c r="I461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461">
         <v>0</v>
       </c>
       <c r="K461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L461">
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -26261,25 +26261,25 @@
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C462">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D462">
         <v>0</v>
       </c>
       <c r="E462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462">
         <v>0</v>
       </c>
       <c r="G462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H462">
         <v>0</v>
@@ -26291,83 +26291,27 @@
         <v>0</v>
       </c>
       <c r="K462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L462">
         <v>0</v>
       </c>
       <c r="M462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N462">
         <v>0</v>
       </c>
       <c r="O462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q462">
         <v>0</v>
       </c>
       <c r="R462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>7</v>
-      </c>
-      <c r="B463">
-        <v>1</v>
-      </c>
-      <c r="C463">
-        <v>7</v>
-      </c>
-      <c r="D463">
-        <v>0</v>
-      </c>
-      <c r="E463">
-        <v>1</v>
-      </c>
-      <c r="F463">
-        <v>0</v>
-      </c>
-      <c r="G463">
-        <v>0</v>
-      </c>
-      <c r="H463">
-        <v>0</v>
-      </c>
-      <c r="I463">
-        <v>0</v>
-      </c>
-      <c r="J463">
-        <v>0</v>
-      </c>
-      <c r="K463">
-        <v>0</v>
-      </c>
-      <c r="L463">
-        <v>0</v>
-      </c>
-      <c r="M463">
-        <v>0</v>
-      </c>
-      <c r="N463">
-        <v>0</v>
-      </c>
-      <c r="O463">
-        <v>1</v>
-      </c>
-      <c r="P463">
-        <v>1</v>
-      </c>
-      <c r="Q463">
-        <v>0</v>
-      </c>
-      <c r="R463">
         <v>0</v>
       </c>
     </row>
